--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -41,12 +41,6 @@
     <t>Implementacja skyBox</t>
   </si>
   <si>
-    <t>Stworzenie własnych modeli przedmiotów w pokoju</t>
-  </si>
-  <si>
-    <t>Implementacja Soft Shadows</t>
-  </si>
-  <si>
     <t>Umieszczenie stworzonych modeli w scenie pokoju</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Jakub Leśniak</t>
   </si>
   <si>
-    <t>Implementacja SSAO</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>Implementacja cieniowania i oświetlenia PBR</t>
+  </si>
+  <si>
+    <t>Stworzenie własnych modeli przedmiotów w pokoju (wszystkie wykorzystane modele są autorskie)</t>
+  </si>
+  <si>
+    <t>Implementacja Soft Shadows (implementacja przy wykorzystaniu PCR ze zmienialnym rozmiarem filtra)</t>
+  </si>
+  <si>
+    <t>Implementacja SSAO (niestety nie powiodło się, etap łączenia wyniku ssao z oświetleniem PBR nie udał się, wyniki pracy można zobaczyć na gałęzi SSAOImpl)</t>
   </si>
 </sst>
 </file>
@@ -803,57 +803,57 @@
   <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -863,16 +863,16 @@
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -880,14 +880,14 @@
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -895,7 +895,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -903,14 +903,14 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -919,34 +919,34 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -954,14 +954,14 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -970,13 +970,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -986,12 +986,12 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1001,7 +1001,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
